--- a/src/backend/XLSImportExport/template.xlsx
+++ b/src/backend/XLSImportExport/template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programovanie\5.semester\TIS\Multiexcel\src\backend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programovanie\5.semester\TIS\Multiexcel\src\backend\XLSImportExport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26FD1C1C-2B60-4AEE-9514-24B8A9AF05F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B4B007-8C8D-4522-8B0E-57A69D28CC04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,33 +27,41 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
-    <t>Skica</t>
-  </si>
-  <si>
-    <t>Číslo artikla</t>
-  </si>
-  <si>
-    <t>Nazov dielu</t>
-  </si>
-  <si>
-    <t>Kategoria dielu</t>
-  </si>
-  <si>
-    <t>Zákazník</t>
-  </si>
-  <si>
-    <t>Guma</t>
+    <t>Cr Steg</t>
+  </si>
+  <si>
+    <t>Cr Niere</t>
+  </si>
+  <si>
+    <t>Ca</t>
+  </si>
+  <si>
+    <t>Ct</t>
+  </si>
+  <si>
+    <t>Ck</t>
+  </si>
+  <si>
+    <t>Drawing</t>
+  </si>
+  <si>
+    <t>Part Number</t>
+  </si>
+  <si>
+    <t>Part Name</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Rubber</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">Priemer
+      <t xml:space="preserve">Diameter
 Ø </t>
     </r>
     <r>
@@ -67,18 +75,12 @@
     </r>
   </si>
   <si>
-    <t>Tol</t>
-  </si>
-  <si>
-    <t>Dlzka
+    <t>Length
 L AT</t>
   </si>
   <si>
-    <t>Tol2</t>
-  </si>
-  <si>
     <r>
-      <t>Priemer
+      <t>Diameter
 Ø</t>
     </r>
     <r>
@@ -92,18 +94,28 @@
     </r>
   </si>
   <si>
-    <t>Tol3</t>
-  </si>
-  <si>
-    <t>Dlzka
+    <t>Diameter
+Ø AT Tol</t>
+  </si>
+  <si>
+    <t>Length
+L AT Tol</t>
+  </si>
+  <si>
+    <t>Diameter
+Ø IT Tol</t>
+  </si>
+  <si>
+    <t>Length
 L IT</t>
   </si>
   <si>
-    <t>Tol4</t>
+    <t>Length
+L IT Tol</t>
   </si>
   <si>
     <r>
-      <t>Priemer
+      <t>Diameter
 Ø</t>
     </r>
     <r>
@@ -117,29 +129,16 @@
     </r>
   </si>
   <si>
-    <t>Tol5</t>
-  </si>
-  <si>
-    <t>Dlzka
+    <t>Diameter
+Ø ZT Tol</t>
+  </si>
+  <si>
+    <t>Length
 L ZT</t>
   </si>
   <si>
-    <t>Tol6</t>
-  </si>
-  <si>
-    <t>Cr Steg</t>
-  </si>
-  <si>
-    <t>Cr Niere</t>
-  </si>
-  <si>
-    <t>Ca</t>
-  </si>
-  <si>
-    <t>Ct</t>
-  </si>
-  <si>
-    <t>Ck</t>
+    <t>Length
+L ZT Tol</t>
   </si>
 </sst>
 </file>
@@ -548,13 +547,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
     <col min="2" max="2" width="33.5546875" customWidth="1"/>
     <col min="3" max="4" width="58.109375" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
@@ -567,83 +566,85 @@
     <col min="12" max="12" width="15.6640625" customWidth="1"/>
     <col min="13" max="13" width="15.44140625" customWidth="1"/>
     <col min="14" max="14" width="14.88671875" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" customWidth="1"/>
+    <col min="15" max="15" width="12.44140625" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" customWidth="1"/>
     <col min="17" max="17" width="10.5546875" customWidth="1"/>
+    <col min="18" max="18" width="11.88671875" customWidth="1"/>
     <col min="19" max="19" width="21.33203125" customWidth="1"/>
     <col min="20" max="20" width="22.44140625" customWidth="1"/>
     <col min="21" max="21" width="22.109375" customWidth="1"/>
     <col min="22" max="23" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="8" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" s="8" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="T1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="U1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="V1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="W1" s="7" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.3">
